--- a/xlsx/微观经济学_intext.xlsx
+++ b/xlsx/微观经济学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t>微观经济学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_美國_微观经济学</t>
+    <t>政策_政策_美国_微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -449,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新古典主義經濟學</t>
+    <t>新古典主义经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>經濟人</t>
+    <t>经济人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%87%89%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供應和需求</t>
+    <t>供应和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E5%85%A8%E7%AB%9E%E4%BA%89</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%B4%AF%E6%89%98%E6%9C%80%E4%BC%98</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%BD%A2%E4%B9%8B%E6%89%8B</t>
   </si>
   <si>
-    <t>無形之手</t>
+    <t>无形之手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%83%B9%E6%A0%BC%E6%A9%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>自由價格機制</t>
+    <t>自由价格机制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E5%AE%9A%E5%BE%8B</t>
@@ -539,19 +539,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%B8%8A%E6%B2%92%E6%9C%89%E5%85%8D%E8%B2%BB%E5%8D%88%E9%A4%90</t>
   </si>
   <si>
-    <t>世上沒有免費午餐</t>
+    <t>世上没有免费午餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -563,37 +563,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>金融經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%8F%B2</t>
   </si>
   <si>
-    <t>經濟史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史學</t>
+    <t>历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A7%91%E5%AD%A6</t>
@@ -617,21 +611,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>總體經濟學</t>
+    <t>总体经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E7%BC%BA%E6%80%A7</t>
   </si>
   <si>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -701,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -713,13 +704,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -749,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -767,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Isocost</t>
@@ -827,19 +818,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -851,25 +842,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -899,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -935,33 +926,27 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
   </si>
   <si>
@@ -971,9 +956,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
   </si>
   <si>
@@ -983,19 +965,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E8%B2%A8</t>
   </si>
   <si>
-    <t>財貨</t>
+    <t>财货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E5%B0%91%E6%80%A7</t>
@@ -1007,13 +986,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E4%BA%A4%E5%8F%89%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的交叉彈性</t>
+    <t>需求的交叉弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%8A%A9%E5%93%81</t>
   </si>
   <si>
-    <t>輔助品</t>
+    <t>辅助品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%9B%BF%E5%93%81</t>
@@ -1025,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%93%81</t>
   </si>
   <si>
-    <t>獨立品</t>
+    <t>独立品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E6%94%B6%E5%85%A5%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的收入彈性</t>
+    <t>需求的收入弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A3%E7%AD%89%E7%89%A9%E5%93%81</t>
@@ -1049,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E5%93%81</t>
   </si>
   <si>
-    <t>消費品</t>
+    <t>消费品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%93%81</t>
@@ -1073,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9C%98%E5%93%81</t>
   </si>
   <si>
-    <t>集團品</t>
+    <t>集团品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%B6%88%E5%93%81</t>
@@ -1103,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E4%BC%AF%E5%80%AB%E5%95%86%E5%93%81</t>
   </si>
   <si>
-    <t>韋伯倫商品</t>
+    <t>韦伯伦商品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1121,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4247,7 +4226,7 @@
         <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4273,10 +4252,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4302,10 +4281,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4331,10 +4310,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4360,10 +4339,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4389,10 +4368,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4418,10 +4397,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4447,10 +4426,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4476,10 +4455,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4505,10 +4484,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4534,10 +4513,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4563,10 +4542,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>28</v>
@@ -4592,10 +4571,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4621,10 +4600,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4650,10 +4629,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>13</v>
@@ -4679,10 +4658,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4708,10 +4687,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4737,10 +4716,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4766,10 +4745,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4795,10 +4774,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4824,10 +4803,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4853,10 +4832,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4882,10 +4861,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4911,10 +4890,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4940,10 +4919,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4969,10 +4948,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -4998,10 +4977,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5027,10 +5006,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5056,10 +5035,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5085,10 +5064,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5114,10 +5093,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5143,10 +5122,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5172,10 +5151,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5201,10 +5180,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5230,10 +5209,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5259,10 +5238,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5288,10 +5267,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5317,10 +5296,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5346,10 +5325,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5375,10 +5354,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5404,10 +5383,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5433,10 +5412,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5462,10 +5441,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5491,10 +5470,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5520,10 +5499,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5549,10 +5528,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5578,10 +5557,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5607,10 +5586,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5636,10 +5615,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5665,10 +5644,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>13</v>
@@ -5694,10 +5673,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5723,10 +5702,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5752,10 +5731,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5781,10 +5760,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5810,10 +5789,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5839,10 +5818,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5868,10 +5847,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5897,10 +5876,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5926,10 +5905,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5955,10 +5934,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5984,10 +5963,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6013,10 +5992,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6071,10 +6050,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6100,10 +6079,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6129,10 +6108,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6158,10 +6137,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6216,10 +6195,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6245,10 +6224,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6303,10 +6282,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6332,10 +6311,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6361,10 +6340,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6390,10 +6369,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6419,10 +6398,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6448,10 +6427,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6477,10 +6456,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6506,10 +6485,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F174" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6535,10 +6514,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6564,10 +6543,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6593,10 +6572,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6622,10 +6601,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6651,10 +6630,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6680,10 +6659,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6709,10 +6688,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6738,10 +6717,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6767,10 +6746,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6796,10 +6775,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6825,10 +6804,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6854,10 +6833,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6883,10 +6862,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6912,10 +6891,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6941,10 +6920,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6970,10 +6949,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6999,10 +6978,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7028,10 +7007,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7057,10 +7036,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7086,10 +7065,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
